--- a/data/output/FV2304_FV2210/UTILMD/11043.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11043.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16258" uniqueCount="849">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16279" uniqueCount="849">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2736,6 +2736,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U741" totalsRowShown="0">
+  <autoFilter ref="A1:U741"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3025,7 +3055,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U741"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -37351,5 +37384,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11043.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11043.xlsx
@@ -5366,7 +5366,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -5700,7 +5700,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -5834,7 +5834,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -6022,7 +6022,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -6554,7 +6554,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -6914,7 +6914,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -7260,7 +7260,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -7648,7 +7648,7 @@
         <v>764</v>
       </c>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -7964,7 +7964,7 @@
         <v>765</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -8170,7 +8170,7 @@
         <v>767</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -8360,7 +8360,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -8548,7 +8548,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -8734,7 +8734,7 @@
         <v>769</v>
       </c>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -8932,7 +8932,7 @@
         <v>772</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -9190,7 +9190,7 @@
         <v>773</v>
       </c>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -9392,7 +9392,7 @@
         <v>773</v>
       </c>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -9842,7 +9842,7 @@
         <v>775</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -9980,7 +9980,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -10130,7 +10130,7 @@
         <v>776</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -10488,7 +10488,7 @@
         <v>779</v>
       </c>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -10732,7 +10732,7 @@
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -10974,7 +10974,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -11112,7 +11112,7 @@
         <v>781</v>
       </c>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -11264,7 +11264,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -11410,7 +11410,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -11666,7 +11666,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -12058,7 +12058,7 @@
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -12344,7 +12344,7 @@
         <v>769</v>
       </c>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -12780,7 +12780,7 @@
         <v>784</v>
       </c>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -12986,7 +12986,7 @@
         <v>785</v>
       </c>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -13124,7 +13124,7 @@
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -13436,7 +13436,7 @@
         <v>786</v>
       </c>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -13574,7 +13574,7 @@
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -13724,7 +13724,7 @@
       </c>
       <c r="K172" s="2"/>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -13928,7 +13928,7 @@
         <v>788</v>
       </c>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -14176,7 +14176,7 @@
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -14312,7 +14312,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="K191" s="2"/>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -14812,7 +14812,7 @@
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -15178,7 +15178,7 @@
         <v>791</v>
       </c>
       <c r="L201" s="4"/>
-      <c r="M201" s="2" t="s">
+      <c r="M201" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N201" s="2" t="s">
@@ -15316,7 +15316,7 @@
       </c>
       <c r="K204" s="2"/>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -15444,22 +15444,22 @@
       <c r="V206" s="5"/>
     </row>
     <row r="207" spans="1:22">
-      <c r="A207" s="5" t="s">
+      <c r="A207" s="2" t="s">
         <v>1043</v>
       </c>
-      <c r="B207" s="5" t="s">
+      <c r="B207" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C207" s="5" t="s">
+      <c r="C207" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D207" s="5"/>
-      <c r="E207" s="5"/>
-      <c r="F207" s="5"/>
-      <c r="G207" s="5"/>
-      <c r="H207" s="5"/>
-      <c r="I207" s="5"/>
-      <c r="J207" s="5" t="s">
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="2"/>
+      <c r="J207" s="2" t="s">
         <v>692</v>
       </c>
       <c r="K207" s="6" t="s">
@@ -15468,19 +15468,19 @@
       <c r="L207" s="7" t="s">
         <v>846</v>
       </c>
-      <c r="M207" s="5" t="s">
+      <c r="M207" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N207" s="5" t="s">
+      <c r="N207" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="O207" s="5"/>
-      <c r="P207" s="5"/>
-      <c r="Q207" s="5"/>
-      <c r="R207" s="5"/>
-      <c r="S207" s="5"/>
-      <c r="T207" s="5"/>
-      <c r="U207" s="5" t="s">
+      <c r="O207" s="2"/>
+      <c r="P207" s="2"/>
+      <c r="Q207" s="2"/>
+      <c r="R207" s="2"/>
+      <c r="S207" s="2"/>
+      <c r="T207" s="2"/>
+      <c r="U207" s="2" t="s">
         <v>692</v>
       </c>
       <c r="V207" s="6" t="s">
@@ -15606,7 +15606,7 @@
       </c>
       <c r="K210" s="2"/>
       <c r="L210" s="4"/>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N210" s="2" t="s">
@@ -15756,7 +15756,7 @@
       </c>
       <c r="K213" s="2"/>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -15960,7 +15960,7 @@
         <v>794</v>
       </c>
       <c r="L217" s="4"/>
-      <c r="M217" s="2" t="s">
+      <c r="M217" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N217" s="2" t="s">
@@ -16356,7 +16356,7 @@
         <v>795</v>
       </c>
       <c r="L225" s="4"/>
-      <c r="M225" s="2" t="s">
+      <c r="M225" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N225" s="2" t="s">
@@ -16606,7 +16606,7 @@
         <v>797</v>
       </c>
       <c r="L230" s="4"/>
-      <c r="M230" s="2" t="s">
+      <c r="M230" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N230" s="2" t="s">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="K234" s="2"/>
       <c r="L234" s="4"/>
-      <c r="M234" s="2" t="s">
+      <c r="M234" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N234" s="2" t="s">
@@ -16928,7 +16928,7 @@
       </c>
       <c r="K237" s="2"/>
       <c r="L237" s="4"/>
-      <c r="M237" s="2" t="s">
+      <c r="M237" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N237" s="2" t="s">
@@ -17292,7 +17292,7 @@
       </c>
       <c r="K244" s="2"/>
       <c r="L244" s="4"/>
-      <c r="M244" s="2" t="s">
+      <c r="M244" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N244" s="2" t="s">
@@ -17428,7 +17428,7 @@
       </c>
       <c r="K247" s="2"/>
       <c r="L247" s="4"/>
-      <c r="M247" s="2" t="s">
+      <c r="M247" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N247" s="2" t="s">
@@ -17794,7 +17794,7 @@
         <v>798</v>
       </c>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -17932,7 +17932,7 @@
       </c>
       <c r="K257" s="2"/>
       <c r="L257" s="4"/>
-      <c r="M257" s="2" t="s">
+      <c r="M257" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N257" s="2" t="s">
@@ -18082,7 +18082,7 @@
         <v>799</v>
       </c>
       <c r="L260" s="4"/>
-      <c r="M260" s="2" t="s">
+      <c r="M260" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N260" s="2" t="s">
@@ -18220,7 +18220,7 @@
       </c>
       <c r="K263" s="2"/>
       <c r="L263" s="4"/>
-      <c r="M263" s="2" t="s">
+      <c r="M263" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N263" s="2" t="s">
@@ -18370,7 +18370,7 @@
       </c>
       <c r="K266" s="2"/>
       <c r="L266" s="4"/>
-      <c r="M266" s="2" t="s">
+      <c r="M266" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N266" s="2" t="s">
@@ -18520,7 +18520,7 @@
         <v>800</v>
       </c>
       <c r="L269" s="4"/>
-      <c r="M269" s="2" t="s">
+      <c r="M269" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N269" s="2" t="s">
@@ -18764,7 +18764,7 @@
       </c>
       <c r="K274" s="2"/>
       <c r="L274" s="4"/>
-      <c r="M274" s="2" t="s">
+      <c r="M274" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N274" s="2" t="s">
@@ -18900,7 +18900,7 @@
       </c>
       <c r="K277" s="2"/>
       <c r="L277" s="4"/>
-      <c r="M277" s="2" t="s">
+      <c r="M277" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N277" s="2" t="s">
@@ -19044,7 +19044,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" s="4"/>
-      <c r="M280" s="2" t="s">
+      <c r="M280" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N280" s="2" t="s">
@@ -19288,7 +19288,7 @@
         <v>802</v>
       </c>
       <c r="L285" s="4"/>
-      <c r="M285" s="2" t="s">
+      <c r="M285" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N285" s="2" t="s">
@@ -19426,7 +19426,7 @@
       </c>
       <c r="K288" s="2"/>
       <c r="L288" s="4"/>
-      <c r="M288" s="2" t="s">
+      <c r="M288" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N288" s="2" t="s">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="K291" s="2"/>
       <c r="L291" s="4"/>
-      <c r="M291" s="2" t="s">
+      <c r="M291" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N291" s="2" t="s">
@@ -19778,7 +19778,7 @@
       </c>
       <c r="K295" s="2"/>
       <c r="L295" s="4"/>
-      <c r="M295" s="2" t="s">
+      <c r="M295" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N295" s="2" t="s">
@@ -19914,7 +19914,7 @@
       </c>
       <c r="K298" s="2"/>
       <c r="L298" s="4"/>
-      <c r="M298" s="2" t="s">
+      <c r="M298" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N298" s="2" t="s">
@@ -20062,7 +20062,7 @@
       </c>
       <c r="K301" s="2"/>
       <c r="L301" s="4"/>
-      <c r="M301" s="2" t="s">
+      <c r="M301" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N301" s="2" t="s">
@@ -20198,7 +20198,7 @@
       </c>
       <c r="K304" s="2"/>
       <c r="L304" s="4"/>
-      <c r="M304" s="2" t="s">
+      <c r="M304" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N304" s="2" t="s">
@@ -20346,7 +20346,7 @@
       </c>
       <c r="K307" s="2"/>
       <c r="L307" s="4"/>
-      <c r="M307" s="2" t="s">
+      <c r="M307" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N307" s="2" t="s">
@@ -20482,7 +20482,7 @@
       </c>
       <c r="K310" s="2"/>
       <c r="L310" s="4"/>
-      <c r="M310" s="2" t="s">
+      <c r="M310" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N310" s="2" t="s">
@@ -20632,7 +20632,7 @@
         <v>804</v>
       </c>
       <c r="L313" s="4"/>
-      <c r="M313" s="2" t="s">
+      <c r="M313" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N313" s="2" t="s">
@@ -20770,7 +20770,7 @@
       </c>
       <c r="K316" s="2"/>
       <c r="L316" s="4"/>
-      <c r="M316" s="2" t="s">
+      <c r="M316" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N316" s="2" t="s">
@@ -20922,7 +20922,7 @@
         <v>769</v>
       </c>
       <c r="L319" s="4"/>
-      <c r="M319" s="2" t="s">
+      <c r="M319" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N319" s="2" t="s">
@@ -21072,7 +21072,7 @@
       </c>
       <c r="K322" s="2"/>
       <c r="L322" s="4"/>
-      <c r="M322" s="2" t="s">
+      <c r="M322" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N322" s="2" t="s">
@@ -21210,7 +21210,7 @@
         <v>769</v>
       </c>
       <c r="L325" s="4"/>
-      <c r="M325" s="2" t="s">
+      <c r="M325" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N325" s="2" t="s">
@@ -21472,7 +21472,7 @@
         <v>769</v>
       </c>
       <c r="L330" s="4"/>
-      <c r="M330" s="2" t="s">
+      <c r="M330" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N330" s="2" t="s">
@@ -21622,7 +21622,7 @@
         <v>805</v>
       </c>
       <c r="L333" s="4"/>
-      <c r="M333" s="2" t="s">
+      <c r="M333" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N333" s="2" t="s">
@@ -21770,7 +21770,7 @@
         <v>769</v>
       </c>
       <c r="L336" s="4"/>
-      <c r="M336" s="2" t="s">
+      <c r="M336" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N336" s="2" t="s">
@@ -22166,7 +22166,7 @@
         <v>773</v>
       </c>
       <c r="L344" s="4"/>
-      <c r="M344" s="2" t="s">
+      <c r="M344" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N344" s="2" t="s">
@@ -22454,7 +22454,7 @@
         <v>769</v>
       </c>
       <c r="L350" s="4"/>
-      <c r="M350" s="2" t="s">
+      <c r="M350" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N350" s="2" t="s">
@@ -22704,7 +22704,7 @@
         <v>807</v>
       </c>
       <c r="L355" s="4"/>
-      <c r="M355" s="2" t="s">
+      <c r="M355" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N355" s="2" t="s">
@@ -23004,7 +23004,7 @@
         <v>808</v>
       </c>
       <c r="L361" s="4"/>
-      <c r="M361" s="2" t="s">
+      <c r="M361" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N361" s="2" t="s">
@@ -23142,7 +23142,7 @@
       </c>
       <c r="K364" s="2"/>
       <c r="L364" s="4"/>
-      <c r="M364" s="2" t="s">
+      <c r="M364" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N364" s="2" t="s">
@@ -23294,7 +23294,7 @@
         <v>809</v>
       </c>
       <c r="L367" s="4"/>
-      <c r="M367" s="2" t="s">
+      <c r="M367" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N367" s="2" t="s">
@@ -23446,7 +23446,7 @@
       </c>
       <c r="K370" s="2"/>
       <c r="L370" s="4"/>
-      <c r="M370" s="2" t="s">
+      <c r="M370" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N370" s="2" t="s">
@@ -23650,7 +23650,7 @@
       </c>
       <c r="K374" s="2"/>
       <c r="L374" s="4"/>
-      <c r="M374" s="2" t="s">
+      <c r="M374" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N374" s="2" t="s">
@@ -23786,7 +23786,7 @@
       </c>
       <c r="K377" s="2"/>
       <c r="L377" s="4"/>
-      <c r="M377" s="2" t="s">
+      <c r="M377" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N377" s="2" t="s">
@@ -23990,7 +23990,7 @@
       </c>
       <c r="K381" s="2"/>
       <c r="L381" s="4"/>
-      <c r="M381" s="2" t="s">
+      <c r="M381" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N381" s="2" t="s">
@@ -24194,7 +24194,7 @@
         <v>811</v>
       </c>
       <c r="L385" s="4"/>
-      <c r="M385" s="2" t="s">
+      <c r="M385" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N385" s="2" t="s">
@@ -24444,7 +24444,7 @@
         <v>812</v>
       </c>
       <c r="L390" s="4"/>
-      <c r="M390" s="2" t="s">
+      <c r="M390" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N390" s="2" t="s">
@@ -24582,7 +24582,7 @@
       </c>
       <c r="K393" s="2"/>
       <c r="L393" s="4"/>
-      <c r="M393" s="2" t="s">
+      <c r="M393" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N393" s="2" t="s">
@@ -24734,7 +24734,7 @@
         <v>813</v>
       </c>
       <c r="L396" s="4"/>
-      <c r="M396" s="2" t="s">
+      <c r="M396" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N396" s="2" t="s">
@@ -24880,7 +24880,7 @@
       </c>
       <c r="K399" s="2"/>
       <c r="L399" s="4"/>
-      <c r="M399" s="2" t="s">
+      <c r="M399" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N399" s="2" t="s">
@@ -26040,7 +26040,7 @@
         <v>773</v>
       </c>
       <c r="L421" s="4"/>
-      <c r="M421" s="2" t="s">
+      <c r="M421" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N421" s="2" t="s">
@@ -27218,7 +27218,7 @@
       </c>
       <c r="K443" s="2"/>
       <c r="L443" s="4"/>
-      <c r="M443" s="2" t="s">
+      <c r="M443" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N443" s="2" t="s">
@@ -27366,7 +27366,7 @@
         <v>815</v>
       </c>
       <c r="L446" s="4"/>
-      <c r="M446" s="2" t="s">
+      <c r="M446" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N446" s="2" t="s">
@@ -27574,7 +27574,7 @@
         <v>769</v>
       </c>
       <c r="L450" s="4"/>
-      <c r="M450" s="2" t="s">
+      <c r="M450" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N450" s="2" t="s">
@@ -27728,7 +27728,7 @@
         <v>769</v>
       </c>
       <c r="L453" s="4"/>
-      <c r="M453" s="2" t="s">
+      <c r="M453" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N453" s="2" t="s">
@@ -27936,7 +27936,7 @@
         <v>816</v>
       </c>
       <c r="L457" s="4"/>
-      <c r="M457" s="2" t="s">
+      <c r="M457" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N457" s="2" t="s">
@@ -28086,7 +28086,7 @@
       </c>
       <c r="K460" s="2"/>
       <c r="L460" s="4"/>
-      <c r="M460" s="2" t="s">
+      <c r="M460" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N460" s="2" t="s">
@@ -28534,7 +28534,7 @@
         <v>817</v>
       </c>
       <c r="L469" s="4"/>
-      <c r="M469" s="2" t="s">
+      <c r="M469" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N469" s="2" t="s">
@@ -28822,7 +28822,7 @@
         <v>818</v>
       </c>
       <c r="L475" s="4"/>
-      <c r="M475" s="2" t="s">
+      <c r="M475" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N475" s="2" t="s">
@@ -28960,7 +28960,7 @@
       </c>
       <c r="K478" s="2"/>
       <c r="L478" s="4"/>
-      <c r="M478" s="2" t="s">
+      <c r="M478" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N478" s="2" t="s">
@@ -29108,7 +29108,7 @@
       </c>
       <c r="K481" s="2"/>
       <c r="L481" s="4"/>
-      <c r="M481" s="2" t="s">
+      <c r="M481" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N481" s="2" t="s">
@@ -29244,7 +29244,7 @@
       </c>
       <c r="K484" s="2"/>
       <c r="L484" s="4"/>
-      <c r="M484" s="2" t="s">
+      <c r="M484" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N484" s="2" t="s">
@@ -29392,7 +29392,7 @@
         <v>816</v>
       </c>
       <c r="L487" s="4"/>
-      <c r="M487" s="2" t="s">
+      <c r="M487" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N487" s="2" t="s">
@@ -29544,7 +29544,7 @@
         <v>818</v>
       </c>
       <c r="L490" s="4"/>
-      <c r="M490" s="2" t="s">
+      <c r="M490" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N490" s="2" t="s">
@@ -29682,7 +29682,7 @@
       </c>
       <c r="K493" s="2"/>
       <c r="L493" s="4"/>
-      <c r="M493" s="2" t="s">
+      <c r="M493" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N493" s="2" t="s">
@@ -29826,7 +29826,7 @@
       </c>
       <c r="K496" s="2"/>
       <c r="L496" s="4"/>
-      <c r="M496" s="2" t="s">
+      <c r="M496" s="3" t="s">
         <v>110</v>
       </c>
       <c r="N496" s="2" t="s">
@@ -29962,7 +29962,7 @@
       </c>
       <c r="K499" s="2"/>
       <c r="L499" s="4"/>
-      <c r="M499" s="2" t="s">
+      <c r="M499" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N499" s="2" t="s">
@@ -30108,7 +30108,7 @@
       </c>
       <c r="K502" s="2"/>
       <c r="L502" s="4"/>
-      <c r="M502" s="2" t="s">
+      <c r="M502" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N502" s="2" t="s">
@@ -30314,7 +30314,7 @@
         <v>819</v>
       </c>
       <c r="L506" s="4"/>
-      <c r="M506" s="2" t="s">
+      <c r="M506" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N506" s="2" t="s">
@@ -30520,7 +30520,7 @@
         <v>820</v>
       </c>
       <c r="L510" s="4"/>
-      <c r="M510" s="2" t="s">
+      <c r="M510" s="3" t="s">
         <v>112</v>
       </c>
       <c r="N510" s="2" t="s">
@@ -30660,7 +30660,7 @@
         <v>821</v>
       </c>
       <c r="L513" s="4"/>
-      <c r="M513" s="2" t="s">
+      <c r="M513" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N513" s="2" t="s">
@@ -30922,7 +30922,7 @@
         <v>823</v>
       </c>
       <c r="L518" s="4"/>
-      <c r="M518" s="2" t="s">
+      <c r="M518" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N518" s="2" t="s">
@@ -31076,7 +31076,7 @@
         <v>824</v>
       </c>
       <c r="L521" s="4"/>
-      <c r="M521" s="2" t="s">
+      <c r="M521" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N521" s="2" t="s">
@@ -31230,7 +31230,7 @@
         <v>825</v>
       </c>
       <c r="L524" s="4"/>
-      <c r="M524" s="2" t="s">
+      <c r="M524" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N524" s="2" t="s">
@@ -31378,7 +31378,7 @@
       </c>
       <c r="K527" s="2"/>
       <c r="L527" s="4"/>
-      <c r="M527" s="2" t="s">
+      <c r="M527" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N527" s="2" t="s">
@@ -31582,7 +31582,7 @@
         <v>827</v>
       </c>
       <c r="L531" s="4"/>
-      <c r="M531" s="2" t="s">
+      <c r="M531" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N531" s="2" t="s">
@@ -31978,7 +31978,7 @@
         <v>828</v>
       </c>
       <c r="L539" s="4"/>
-      <c r="M539" s="2" t="s">
+      <c r="M539" s="3" t="s">
         <v>115</v>
       </c>
       <c r="N539" s="2" t="s">
@@ -32312,7 +32312,7 @@
         <v>829</v>
       </c>
       <c r="L546" s="4"/>
-      <c r="M546" s="2" t="s">
+      <c r="M546" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N546" s="2" t="s">
@@ -32558,7 +32558,7 @@
         <v>830</v>
       </c>
       <c r="L551" s="4"/>
-      <c r="M551" s="2" t="s">
+      <c r="M551" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N551" s="2" t="s">
@@ -32696,7 +32696,7 @@
       </c>
       <c r="K554" s="2"/>
       <c r="L554" s="4"/>
-      <c r="M554" s="2" t="s">
+      <c r="M554" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N554" s="2" t="s">
@@ -32840,7 +32840,7 @@
       </c>
       <c r="K557" s="2"/>
       <c r="L557" s="4"/>
-      <c r="M557" s="2" t="s">
+      <c r="M557" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N557" s="2" t="s">
@@ -32978,7 +32978,7 @@
         <v>831</v>
       </c>
       <c r="L560" s="4"/>
-      <c r="M560" s="2" t="s">
+      <c r="M560" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N560" s="2" t="s">
@@ -33126,7 +33126,7 @@
       </c>
       <c r="K563" s="2"/>
       <c r="L563" s="4"/>
-      <c r="M563" s="2" t="s">
+      <c r="M563" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N563" s="2" t="s">
@@ -33438,7 +33438,7 @@
         <v>833</v>
       </c>
       <c r="L569" s="4"/>
-      <c r="M569" s="2" t="s">
+      <c r="M569" s="3" t="s">
         <v>120</v>
       </c>
       <c r="N569" s="2" t="s">
@@ -33576,7 +33576,7 @@
       </c>
       <c r="K572" s="2"/>
       <c r="L572" s="4"/>
-      <c r="M572" s="2" t="s">
+      <c r="M572" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N572" s="2" t="s">
@@ -33720,7 +33720,7 @@
       </c>
       <c r="K575" s="2"/>
       <c r="L575" s="4"/>
-      <c r="M575" s="2" t="s">
+      <c r="M575" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N575" s="2" t="s">
@@ -33856,7 +33856,7 @@
       </c>
       <c r="K578" s="2"/>
       <c r="L578" s="4"/>
-      <c r="M578" s="2" t="s">
+      <c r="M578" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N578" s="2" t="s">
@@ -34002,7 +34002,7 @@
       </c>
       <c r="K581" s="2"/>
       <c r="L581" s="4"/>
-      <c r="M581" s="2" t="s">
+      <c r="M581" s="3" t="s">
         <v>122</v>
       </c>
       <c r="N581" s="2" t="s">
@@ -34368,7 +34368,7 @@
         <v>834</v>
       </c>
       <c r="L588" s="4"/>
-      <c r="M588" s="2" t="s">
+      <c r="M588" s="3" t="s">
         <v>123</v>
       </c>
       <c r="N588" s="2" t="s">
@@ -34506,7 +34506,7 @@
       </c>
       <c r="K591" s="2"/>
       <c r="L591" s="4"/>
-      <c r="M591" s="2" t="s">
+      <c r="M591" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N591" s="2" t="s">
@@ -34650,7 +34650,7 @@
       </c>
       <c r="K594" s="2"/>
       <c r="L594" s="4"/>
-      <c r="M594" s="2" t="s">
+      <c r="M594" s="3" t="s">
         <v>124</v>
       </c>
       <c r="N594" s="2" t="s">
@@ -34786,7 +34786,7 @@
       </c>
       <c r="K597" s="2"/>
       <c r="L597" s="4"/>
-      <c r="M597" s="2" t="s">
+      <c r="M597" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N597" s="2" t="s">
@@ -34932,7 +34932,7 @@
       </c>
       <c r="K600" s="2"/>
       <c r="L600" s="4"/>
-      <c r="M600" s="2" t="s">
+      <c r="M600" s="3" t="s">
         <v>125</v>
       </c>
       <c r="N600" s="2" t="s">
@@ -35082,7 +35082,7 @@
         <v>834</v>
       </c>
       <c r="L603" s="4"/>
-      <c r="M603" s="2" t="s">
+      <c r="M603" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N603" s="2" t="s">
@@ -35354,7 +35354,7 @@
       </c>
       <c r="K609" s="2"/>
       <c r="L609" s="4"/>
-      <c r="M609" s="2" t="s">
+      <c r="M609" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N609" s="2" t="s">
@@ -35504,7 +35504,7 @@
         <v>836</v>
       </c>
       <c r="L612" s="4"/>
-      <c r="M612" s="2" t="s">
+      <c r="M612" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N612" s="2" t="s">
@@ -35642,7 +35642,7 @@
       </c>
       <c r="K615" s="2"/>
       <c r="L615" s="4"/>
-      <c r="M615" s="2" t="s">
+      <c r="M615" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N615" s="2" t="s">
@@ -35788,7 +35788,7 @@
       </c>
       <c r="K618" s="2"/>
       <c r="L618" s="4"/>
-      <c r="M618" s="2" t="s">
+      <c r="M618" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N618" s="2" t="s">
@@ -35936,7 +35936,7 @@
       </c>
       <c r="K621" s="2"/>
       <c r="L621" s="4"/>
-      <c r="M621" s="2" t="s">
+      <c r="M621" s="3" t="s">
         <v>128</v>
       </c>
       <c r="N621" s="2" t="s">
@@ -36072,7 +36072,7 @@
       </c>
       <c r="K624" s="2"/>
       <c r="L624" s="4"/>
-      <c r="M624" s="2" t="s">
+      <c r="M624" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N624" s="2" t="s">
@@ -36222,7 +36222,7 @@
         <v>837</v>
       </c>
       <c r="L627" s="4"/>
-      <c r="M627" s="2" t="s">
+      <c r="M627" s="3" t="s">
         <v>129</v>
       </c>
       <c r="N627" s="2" t="s">
@@ -36360,7 +36360,7 @@
       </c>
       <c r="K630" s="2"/>
       <c r="L630" s="4"/>
-      <c r="M630" s="2" t="s">
+      <c r="M630" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N630" s="2" t="s">
@@ -36508,7 +36508,7 @@
       </c>
       <c r="K633" s="2"/>
       <c r="L633" s="4"/>
-      <c r="M633" s="2" t="s">
+      <c r="M633" s="3" t="s">
         <v>130</v>
       </c>
       <c r="N633" s="2" t="s">
@@ -36898,7 +36898,7 @@
         <v>838</v>
       </c>
       <c r="L641" s="4"/>
-      <c r="M641" s="2" t="s">
+      <c r="M641" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N641" s="2" t="s">
@@ -37036,7 +37036,7 @@
       </c>
       <c r="K644" s="2"/>
       <c r="L644" s="4"/>
-      <c r="M644" s="2" t="s">
+      <c r="M644" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N644" s="2" t="s">
@@ -37184,7 +37184,7 @@
       </c>
       <c r="K647" s="2"/>
       <c r="L647" s="4"/>
-      <c r="M647" s="2" t="s">
+      <c r="M647" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N647" s="2" t="s">
@@ -37572,7 +37572,7 @@
       </c>
       <c r="K655" s="2"/>
       <c r="L655" s="4"/>
-      <c r="M655" s="2" t="s">
+      <c r="M655" s="3" t="s">
         <v>133</v>
       </c>
       <c r="N655" s="2" t="s">
@@ -37974,7 +37974,7 @@
         <v>840</v>
       </c>
       <c r="L663" s="4"/>
-      <c r="M663" s="2" t="s">
+      <c r="M663" s="3" t="s">
         <v>134</v>
       </c>
       <c r="N663" s="2" t="s">
@@ -38112,7 +38112,7 @@
       </c>
       <c r="K666" s="2"/>
       <c r="L666" s="4"/>
-      <c r="M666" s="2" t="s">
+      <c r="M666" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N666" s="2" t="s">
@@ -38260,7 +38260,7 @@
       </c>
       <c r="K669" s="2"/>
       <c r="L669" s="4"/>
-      <c r="M669" s="2" t="s">
+      <c r="M669" s="3" t="s">
         <v>135</v>
       </c>
       <c r="N669" s="2" t="s">
@@ -38488,7 +38488,7 @@
         <v>841</v>
       </c>
       <c r="L674" s="4"/>
-      <c r="M674" s="2" t="s">
+      <c r="M674" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N674" s="2" t="s">
@@ -38784,7 +38784,7 @@
       </c>
       <c r="K680" s="2"/>
       <c r="L680" s="4"/>
-      <c r="M680" s="2" t="s">
+      <c r="M680" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N680" s="2" t="s">
@@ -38934,7 +38934,7 @@
         <v>841</v>
       </c>
       <c r="L683" s="4"/>
-      <c r="M683" s="2" t="s">
+      <c r="M683" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N683" s="2" t="s">
@@ -39434,7 +39434,7 @@
       </c>
       <c r="K693" s="2"/>
       <c r="L693" s="4"/>
-      <c r="M693" s="2" t="s">
+      <c r="M693" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N693" s="2" t="s">
@@ -39582,7 +39582,7 @@
       </c>
       <c r="K696" s="2"/>
       <c r="L696" s="4"/>
-      <c r="M696" s="2" t="s">
+      <c r="M696" s="3" t="s">
         <v>138</v>
       </c>
       <c r="N696" s="2" t="s">
@@ -39876,7 +39876,7 @@
       </c>
       <c r="K702" s="2"/>
       <c r="L702" s="4"/>
-      <c r="M702" s="2" t="s">
+      <c r="M702" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N702" s="2" t="s">
@@ -40024,7 +40024,7 @@
       </c>
       <c r="K705" s="2"/>
       <c r="L705" s="4"/>
-      <c r="M705" s="2" t="s">
+      <c r="M705" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N705" s="2" t="s">
@@ -40522,7 +40522,7 @@
         <v>843</v>
       </c>
       <c r="L715" s="4"/>
-      <c r="M715" s="2" t="s">
+      <c r="M715" s="3" t="s">
         <v>140</v>
       </c>
       <c r="N715" s="2" t="s">
@@ -40914,7 +40914,7 @@
       </c>
       <c r="K723" s="2"/>
       <c r="L723" s="4"/>
-      <c r="M723" s="2" t="s">
+      <c r="M723" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N723" s="2" t="s">
@@ -41064,7 +41064,7 @@
         <v>845</v>
       </c>
       <c r="L726" s="4"/>
-      <c r="M726" s="2" t="s">
+      <c r="M726" s="3" t="s">
         <v>141</v>
       </c>
       <c r="N726" s="2" t="s">
@@ -41564,7 +41564,7 @@
       </c>
       <c r="K736" s="2"/>
       <c r="L736" s="4"/>
-      <c r="M736" s="2" t="s">
+      <c r="M736" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N736" s="2" t="s">
@@ -41712,7 +41712,7 @@
       </c>
       <c r="K739" s="2"/>
       <c r="L739" s="4"/>
-      <c r="M739" s="2" t="s">
+      <c r="M739" s="3" t="s">
         <v>142</v>
       </c>
       <c r="N739" s="2"/>
